--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_17-59.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_17-59.xlsx
@@ -101,6 +101,12 @@
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
+    <t>COLD FREE 20 TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -119,9 +125,6 @@
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -212,6 +215,15 @@
     <t>9:0</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
     <t>NEUROVIT 6 I.M. AMPS</t>
   </si>
   <si>
@@ -287,9 +299,6 @@
     <t>VIRECTA 100 MG 12 F.C.TABS.</t>
   </si>
   <si>
-    <t>0:6</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -320,10 +329,16 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>-3:0</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>-2:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>صوفى طويل جدا جدا</t>
@@ -1347,17 +1362,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1365,7 +1380,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1373,17 +1388,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1405,11 +1420,11 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1425,13 +1440,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>12</v>
+        <v>27.5</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1443,7 +1458,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1451,13 +1466,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1477,13 +1492,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1503,7 +1518,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -1529,13 +1544,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1547,7 +1562,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1555,17 +1570,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1581,17 +1596,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1599,7 +1614,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1607,17 +1622,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1625,7 +1640,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1633,17 +1648,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1659,17 +1674,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1677,7 +1692,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1685,17 +1700,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1711,13 +1726,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1737,17 +1752,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1763,17 +1778,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1789,17 +1804,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>14.25</v>
+        <v>177</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1815,17 +1830,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>78</v>
+        <v>14.25</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1841,17 +1856,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>27.440000000000001</v>
+        <v>78</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1867,17 +1882,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>57</v>
+        <v>27.440000000000001</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1893,13 +1908,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>120.78</v>
+        <v>57</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1925,7 +1940,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>70</v>
+        <v>120.78</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1945,17 +1960,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1971,17 +1986,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2003,7 +2018,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>56</v>
+        <v>240</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2023,13 +2038,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2041,7 +2056,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2049,17 +2064,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2075,17 +2090,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2093,7 +2108,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2101,17 +2116,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2119,7 +2134,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2127,17 +2142,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2145,7 +2160,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2153,7 +2168,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -2163,7 +2178,7 @@
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2179,13 +2194,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>160.05000000000001</v>
+        <v>24</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2197,7 +2212,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2205,13 +2220,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2223,7 +2238,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2231,17 +2246,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>7</v>
+        <v>160.05000000000001</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2257,17 +2272,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2275,7 +2290,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2283,17 +2298,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>86.5</v>
+        <v>7</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2301,7 +2316,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2309,13 +2324,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2327,7 +2342,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2335,17 +2350,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>62</v>
+        <v>86.5</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2353,7 +2368,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2367,11 +2382,11 @@
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>282</v>
+        <v>67</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2379,7 +2394,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2387,13 +2402,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>30.5</v>
+        <v>62</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2405,7 +2420,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2413,17 +2428,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>31.5</v>
+        <v>282</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2431,7 +2446,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2439,17 +2454,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>60</v>
+        <v>30.5</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2457,7 +2472,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2465,17 +2480,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>123</v>
+        <v>31.5</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2483,7 +2498,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2491,13 +2506,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2509,7 +2524,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2517,17 +2532,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>26.100000000000001</v>
+        <v>123</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2535,7 +2550,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2543,13 +2558,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2561,7 +2576,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2569,17 +2584,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>51</v>
+        <v>26.100000000000001</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2595,17 +2610,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>94.5</v>
+        <v>132</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2621,13 +2636,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2639,7 +2654,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2647,17 +2662,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2673,13 +2688,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2691,7 +2706,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2699,13 +2714,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2731,11 +2746,11 @@
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2751,17 +2766,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2783,11 +2798,11 @@
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>11</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2795,7 +2810,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2803,17 +2818,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2821,7 +2836,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2829,13 +2844,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2843,37 +2858,89 @@
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
-      <c r="K78" s="10">
-        <v>4743.2700000000004</v>
-      </c>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-    </row>
-    <row r="79" ht="17.25" customHeight="1">
-      <c t="s" r="A79" s="11">
-        <v>110</v>
-      </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c t="s" r="F79" s="12">
-        <v>111</v>
-      </c>
-      <c r="G79" s="12"/>
-      <c r="H79" s="13"/>
-      <c t="s" r="I79" s="14">
+      <c r="A78" s="6">
+        <v>75</v>
+      </c>
+      <c t="s" r="B78" s="7">
         <v>112</v>
       </c>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="14"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c t="s" r="H78" s="8">
+        <v>113</v>
+      </c>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="9">
+        <v>15</v>
+      </c>
+      <c r="M78" s="9"/>
+      <c t="s" r="N78" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" ht="24.75" customHeight="1">
+      <c r="A79" s="6">
+        <v>76</v>
+      </c>
+      <c t="s" r="B79" s="7">
+        <v>114</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c t="s" r="H79" s="8">
+        <v>101</v>
+      </c>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="9">
+        <v>24</v>
+      </c>
+      <c r="M79" s="9"/>
+      <c t="s" r="N79" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" ht="26.25" customHeight="1">
+      <c r="K80" s="10">
+        <v>4807.2700000000004</v>
+      </c>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="11">
+        <v>115</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c t="s" r="F81" s="12">
+        <v>116</v>
+      </c>
+      <c r="G81" s="12"/>
+      <c r="H81" s="13"/>
+      <c t="s" r="I81" s="14">
+        <v>117</v>
+      </c>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="233">
+  <mergeCells count="239">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3103,10 +3170,16 @@
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="I79:N79"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="I81:N81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
